--- a/Models/Maxent/random_evals.xlsx
+++ b/Models/Maxent/random_evals.xlsx
@@ -128,28 +128,28 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6200717299578059</v>
+        <v>0.5958633325101369</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8034375</v>
+        <v>0.6849596774193548</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.981012987012987</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8268075768075768</v>
+        <v>0.8841925191250528</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6701424072299055</v>
+        <v>0.659724497597204</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6841961836174799</v>
+        <v>0.6950990927562547</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8469234617308654</v>
+        <v>0.8163333333333334</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6094670923379175</v>
+        <v>0.6521837102589315</v>
       </c>
     </row>
     <row r="3">
@@ -157,28 +157,28 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6043758092852435</v>
+        <v>0.5848411702842082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6689045226130653</v>
+        <v>0.6876060606060606</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.9908274617631896</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7760192307692307</v>
+        <v>0.8487140987140988</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6361927418602482</v>
+        <v>0.6347777963800063</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6969058888773245</v>
+        <v>0.7031000121106353</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8741591741591742</v>
+        <v>0.8266933600266934</v>
       </c>
       <c r="I3" t="n">
-        <v>0.67835233229973</v>
+        <v>0.5815468356124657</v>
       </c>
     </row>
     <row r="4">
@@ -186,28 +186,28 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5956207009224428</v>
+        <v>0.5940136533655378</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5338241331691114</v>
+        <v>0.6903109021012951</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6278961038961038</v>
+        <v>0.9845473465140478</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8600438023514947</v>
+        <v>0.846173076923077</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6392439965909661</v>
+        <v>0.6454013761467889</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6972100369568303</v>
+        <v>0.6865139749643402</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7364015341003836</v>
+        <v>0.8161666666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>0.697419169538815</v>
+        <v>0.6436015561015561</v>
       </c>
     </row>
     <row r="5">
@@ -215,28 +215,28 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.599452844681545</v>
+        <v>0.6214838255977496</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6731350806451613</v>
+        <v>0.7006328478151682</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5385310054184227</v>
+        <v>0.9699118848055018</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9195384615384615</v>
+        <v>0.8030384615384616</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6018845041515066</v>
+        <v>0.6465450455495818</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6712238483910311</v>
+        <v>0.6836512282776109</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7383782883782883</v>
+        <v>0.7756288522405463</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6024414715719063</v>
+        <v>0.6495999821719074</v>
       </c>
     </row>
     <row r="6">
@@ -244,28 +244,28 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5981667321329769</v>
+        <v>0.5783794930363885</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6775265017667844</v>
+        <v>0.6235282258064516</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5967741935483871</v>
+        <v>0.9878511966701353</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8243076923076923</v>
+        <v>0.8022719409526006</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6566398339755809</v>
+        <v>0.6496180033884218</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6953588538787544</v>
+        <v>0.6856791045234716</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7946446446446447</v>
+        <v>0.7953023488255873</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6281547033759424</v>
+        <v>0.5777839323814213</v>
       </c>
     </row>
   </sheetData>
@@ -315,28 +315,28 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.778763140136893</v>
+        <v>0.8383929511764948</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7266324757128043</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#N/A</v>
+        <v>0.852265453161891</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8013499973056208</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7450299247944949</v>
+        <v>0.5555668974740425</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9619591586929936</v>
+        <v>0.942129857858943</v>
       </c>
       <c r="G2" t="n">
-        <v>0.960742254000681</v>
+        <v>0.9337800489054352</v>
       </c>
       <c r="H2" t="n">
-        <v>0.94607839767887</v>
+        <v>0.8528987789321543</v>
       </c>
       <c r="I2" t="n">
-        <v>0.46891523243205707</v>
+        <v>0.6450213786951307</v>
       </c>
     </row>
     <row r="3">
@@ -344,28 +344,28 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9209009443886176</v>
+        <v>0.8771398385152533</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7281351676640646</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#N/A</v>
+        <v>0.784101866778425</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7489773481477491</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7962374897040172</v>
+        <v>0.7921226929283188</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8260580577324838</v>
+        <v>0.8438641077431315</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9452033652372802</v>
+        <v>0.9426637074652564</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9115011292826255</v>
+        <v>0.9441577037337792</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7212533082613133</v>
+        <v>0.23772389631868981</v>
       </c>
     </row>
     <row r="4">
@@ -373,28 +373,28 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9135416118666627</v>
+        <v>0.842060417682222</v>
       </c>
       <c r="C4" t="n">
-        <v>0.36339837975950307</v>
+        <v>0.6965503003130973</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8006720677256599</v>
+        <v>0.7489196022845941</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8420926997689963</v>
+        <v>0.7710323924107565</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8321315044731068</v>
+        <v>0.7425037568131696</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8111025152728095</v>
+        <v>0.9053732534491798</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9012818265308699</v>
+        <v>0.8838949125607197</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6561122753047627</v>
+        <v>0.3520141726136905</v>
       </c>
     </row>
     <row r="5">
@@ -402,28 +402,28 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6925792102341977</v>
+        <v>0.7526677908349947</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6988428715864909</v>
+        <v>0.5304538099935746</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23026236776901857</v>
+        <v>0.8382465522400335</v>
       </c>
       <c r="E5" t="n">
-        <v>0.882557977135079</v>
+        <v>0.8251168298339278</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9081716899434349</v>
+        <v>0.567835190734632</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9345369831100755</v>
+        <v>0.8908210995359317</v>
       </c>
       <c r="H5" t="n">
-        <v>0.804884381488767</v>
+        <v>0.9045804811725395</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4259725078251838</v>
+        <v>0.6854087950078007</v>
       </c>
     </row>
     <row r="6">
@@ -431,28 +431,28 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8515912743223222</v>
+        <v>0.8916478835384335</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7322594689158128</v>
+        <v>0.5688579301209424</v>
       </c>
       <c r="D6" t="n">
-        <v>0.34273461214460293</v>
+        <v>0.24384603695467427</v>
       </c>
       <c r="E6" t="n">
-        <v>0.743558049214945</v>
+        <v>0.5432040220372639</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8552195176658682</v>
+        <v>0.9114784418257007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9441678674754916</v>
+        <v>0.9289125209596489</v>
       </c>
       <c r="H6" t="n">
-        <v>0.844209118476631</v>
+        <v>0.8564395022403128</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5465457255911699</v>
+        <v>0.15138859459406692</v>
       </c>
     </row>
   </sheetData>
@@ -502,28 +502,28 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5650573473593782</v>
+        <v>0.5753520893258287</v>
       </c>
       <c r="C2" t="n">
-        <v>0.49902927120669055</v>
+        <v>0.5742979755574213</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4904935064935065</v>
+        <v>0.9077743109724389</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8956043956043956</v>
+        <v>0.7657785926041504</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6251330210559826</v>
+        <v>0.6722799927345382</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6555762683773497</v>
+        <v>0.6430608452045263</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6452578560567663</v>
+        <v>0.571849645030426</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5745393120393121</v>
+        <v>0.6524397738446411</v>
       </c>
     </row>
     <row r="3">
@@ -531,28 +531,28 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5640340364830626</v>
+        <v>0.556523685546061</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6252426821983273</v>
+        <v>0.5193564605329312</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4881955792551819</v>
+        <v>0.8839339468478541</v>
       </c>
       <c r="E3" t="n">
-        <v>0.682784997853491</v>
+        <v>0.7378439649781113</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6351953907815632</v>
+        <v>0.5958198255787407</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6531460385179806</v>
+        <v>0.6755477042472559</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6752243427704753</v>
+        <v>0.6463348960973138</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6501651638246585</v>
+        <v>0.5410727013542409</v>
       </c>
     </row>
     <row r="4">
@@ -560,28 +560,28 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5894253014761583</v>
+        <v>0.5900280163788061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5133148404993065</v>
+        <v>0.5665671227168554</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5543161726469059</v>
+        <v>0.8566753246753247</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7328160764777164</v>
+        <v>0.7459568733153639</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6672121819092275</v>
+        <v>0.6401628561059699</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6344102461123737</v>
+        <v>0.6401101538039627</v>
       </c>
       <c r="H4" t="n">
-        <v>0.702183112406468</v>
+        <v>0.6707115433119413</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6054777122254998</v>
+        <v>0.5835282291153783</v>
       </c>
     </row>
     <row r="5">
@@ -589,28 +589,28 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5674274890788067</v>
+        <v>0.566881581286511</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5907463354593264</v>
+        <v>0.5024430271157361</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>0.9006057741880048</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7777430691136274</v>
+        <v>0.7682355696054326</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6358464888405008</v>
+        <v>0.5907682522375176</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6477371015544668</v>
+        <v>0.6428245137946631</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7415519201616978</v>
+        <v>0.7537145928174</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5221962095875139</v>
+        <v>0.6047969078153627</v>
       </c>
     </row>
     <row r="6">
@@ -618,28 +618,28 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6019084221563561</v>
+        <v>0.5748948854592586</v>
       </c>
       <c r="C6" t="n">
-        <v>0.49497407780388647</v>
+        <v>0.5556022487439533</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5424778761061947</v>
+        <v>0.8747398543184183</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6503904724716908</v>
+        <v>0.6944759151463062</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5869352204681546</v>
+        <v>0.649461901734629</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6635185264145312</v>
+        <v>0.6636418734124785</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6054984779299848</v>
+        <v>0.7229819353208691</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5949028529267093</v>
+        <v>0.6134327442317133</v>
       </c>
     </row>
   </sheetData>
@@ -689,28 +689,28 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9026615011980391</v>
+        <v>0.8973807397914539</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.050504362676092346</v>
+        <v>0.11562178655714202</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.31456987611933457</v>
+        <v>0.057396383558473284</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.29177984893353537</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7294744866561808</v>
+        <v>0.6064163176695299</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7936634945565272</v>
+        <v>0.921558120622741</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7072527310324841</v>
+        <v>0.7600344262521135</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06015037593984962</v>
+        <v>0.5044334975369457</v>
       </c>
     </row>
     <row r="3">
@@ -718,28 +718,28 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9571446208382416</v>
+        <v>0.8004910573630243</v>
       </c>
       <c r="C3" t="n">
-        <v>0.14696760599727857</v>
+        <v>0.11598855777287297</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.24440645215800397</v>
+        <v>0.437443590587278</v>
       </c>
       <c r="E3" t="n">
-        <v>0.34583827109041987</v>
+        <v>-0.2872358190747659</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8749561439753318</v>
+        <v>0.7496578201031701</v>
       </c>
       <c r="G3" t="n">
-        <v>0.947684572045207</v>
+        <v>0.9536531268449767</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4755144451875955</v>
+        <v>0.5448336411011089</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.12154150197628458</v>
+        <v>-0.7261982971914072</v>
       </c>
     </row>
     <row r="4">
@@ -747,28 +747,28 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.572424509396281</v>
+        <v>0.7898099153873743</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.21399936796269703</v>
+        <v>-0.24131845141884176</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4067105635737149</v>
+        <v>-0.7573008143688297</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6849710441152724</v>
+        <v>0.535778903548703</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5694406656649456</v>
+        <v>0.7944164574590853</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9086159751305539</v>
+        <v>0.8551125243604748</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9345874931743584</v>
+        <v>0.42269058208075644</v>
       </c>
       <c r="I4" t="n">
-        <v>0.636842105263158</v>
+        <v>0.283093055173933</v>
       </c>
     </row>
     <row r="5">
@@ -776,28 +776,28 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8264533513382897</v>
+        <v>0.9391508194028085</v>
       </c>
       <c r="C5" t="n">
-        <v>0.13398267645447973</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#N/A</v>
+        <v>-0.40620155049635015</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.17619519143382045</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.16624013388675923</v>
+        <v>0.8434509239349234</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7993613457851501</v>
+        <v>0.8562851125604387</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9237461854924117</v>
+        <v>0.9814117625803164</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8107684388633447</v>
+        <v>0.8357215839471627</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.28265767757183474</v>
+        <v>0.33766233766233766</v>
       </c>
     </row>
     <row r="6">
@@ -805,28 +805,28 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8538147116178462</v>
+        <v>0.5652614017547272</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.22929263972306574</v>
+        <v>0.4593436697521074</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.9310449102536037</v>
+        <v>-0.40541793139247645</v>
       </c>
       <c r="E6" t="n">
-        <v>0.16624031202900758</v>
+        <v>0.7229528924968839</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7604250016108148</v>
+        <v>0.6689997101478248</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9511167225133055</v>
+        <v>0.9422453452994913</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5671490346048529</v>
+        <v>-0.0594076655052265</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.8370267442637945</v>
+        <v>-0.721060147430755</v>
       </c>
     </row>
   </sheetData>
@@ -876,28 +876,28 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.581074297188755</v>
+        <v>0.5701903131276547</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5351132776750528</v>
+        <v>0.5423706687553616</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.8859261186264308</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7331682009673897</v>
+        <v>0.6871339320577899</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6244022727272728</v>
+        <v>0.6465124215124215</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6751712107015259</v>
+        <v>0.636444621766329</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7449816362715299</v>
+        <v>0.668205971659919</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5251518135565403</v>
+        <v>0.494021294021294</v>
       </c>
     </row>
     <row r="3">
@@ -905,28 +905,28 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5785830331284877</v>
+        <v>0.5920339876551922</v>
       </c>
       <c r="C3" t="n">
-        <v>0.47966228192928445</v>
+        <v>0.44065868486815113</v>
       </c>
       <c r="D3" t="n">
-        <v>0.43106562311860325</v>
+        <v>0.8933591231463572</v>
       </c>
       <c r="E3" t="n">
-        <v>0.701781458764699</v>
+        <v>0.6627294025771183</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6182952277263655</v>
+        <v>0.61283569225186</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6526827495343237</v>
+        <v>0.6702170963364993</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7659090909090909</v>
+        <v>0.6711626139817629</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5924943730082678</v>
+        <v>0.5865663322185062</v>
       </c>
     </row>
     <row r="4">
@@ -934,28 +934,28 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6023200512555137</v>
+        <v>0.5813085435052866</v>
       </c>
       <c r="C4" t="n">
-        <v>0.49135329216679385</v>
+        <v>0.5203127169235041</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5592159916926273</v>
+        <v>0.8921736869474779</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7730012797198087</v>
+        <v>0.7895330058542493</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6329909819639279</v>
+        <v>0.649377990430622</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6367872203852276</v>
+        <v>0.6633267005607432</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6382984697458935</v>
+        <v>0.6835888238096572</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4888923013923014</v>
+        <v>0.583937643395608</v>
       </c>
     </row>
     <row r="5">
@@ -963,28 +963,28 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5897864258464277</v>
+        <v>0.5500221295675841</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6062486027274759</v>
+        <v>0.5728233273596177</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>0.8743176445304105</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7538383404305192</v>
+        <v>0.7747057213249384</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6289980425183229</v>
+        <v>0.606209476309227</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6408614113159568</v>
+        <v>0.6439886363636363</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6437468386444107</v>
+        <v>0.6644820162107397</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6245039018952062</v>
+        <v>0.4621850613154961</v>
       </c>
     </row>
     <row r="6">
@@ -992,28 +992,28 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5414066453027492</v>
+        <v>0.5833781664231885</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6131915290605467</v>
+        <v>0.6499384580955578</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>0.911064935064935</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7717701293120287</v>
+        <v>0.7921319796954315</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6488812236191168</v>
+        <v>0.6467626717626718</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6588598250493027</v>
+        <v>0.6535479774137941</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6611100557244174</v>
+        <v>0.684243803743045</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5731984751598622</v>
+        <v>0.6329189233546693</v>
       </c>
     </row>
   </sheetData>
@@ -1063,28 +1063,28 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6889697657868086</v>
+        <v>0.9173456557264984</v>
       </c>
       <c r="C2" t="n">
-        <v>0.24376702255893679</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#N/A</v>
+        <v>-0.038832674581641906</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.13677301334744227</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7424623574488672</v>
+        <v>0.03725664041614247</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8580937414420889</v>
+        <v>0.698844478582181</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9207732227361719</v>
+        <v>0.8532765125084097</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5640534045196264</v>
+        <v>0.7743733182187863</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.18413597773670756</v>
+        <v>0.5410687275132563</v>
       </c>
     </row>
     <row r="3">
@@ -1092,28 +1092,28 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8756652465156312</v>
+        <v>0.2773121920616158</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.19115238047994937</v>
+        <v>-0.31879798878445403</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.011852856962876614</v>
+        <v>0.2523469467716202</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6071092495715562</v>
+        <v>0.5427878442380214</v>
       </c>
       <c r="F3" t="n">
-        <v>0.765296642884591</v>
+        <v>0.6850101279846099</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9271286914674407</v>
+        <v>0.8474642310260371</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6492402983636372</v>
+        <v>0.6368178974221274</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4794215795328142</v>
+        <v>0.31008403361344544</v>
       </c>
     </row>
     <row r="4">
@@ -1121,28 +1121,28 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.48693381610670444</v>
+        <v>0.8346370282417994</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.016468114934773563</v>
+        <v>0.1968503938790891</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23103178362448196</v>
+        <v>0.04603816352791164</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6232132795685896</v>
+        <v>0.8161991554801873</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8494696803810732</v>
+        <v>0.8264437628211058</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8187169411615323</v>
+        <v>0.9710838245483457</v>
       </c>
       <c r="H4" t="n">
-        <v>0.635973260924407</v>
+        <v>0.5757575760599596</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5663466967814793</v>
+        <v>0.5766129032258065</v>
       </c>
     </row>
     <row r="5">
@@ -1150,28 +1150,28 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.462246674936521</v>
+        <v>0.5970504751570351</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5540920684408233</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#N/A</v>
+        <v>0.21264370555899267</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.664340419454153</v>
       </c>
       <c r="E5" t="n">
-        <v>0.42198076320943756</v>
+        <v>0.7806542744107374</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7161348567714186</v>
+        <v>0.805013497821549</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9219693082396835</v>
+        <v>0.889384990662549</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7084062872329286</v>
+        <v>0.873712769441467</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4719459643987451</v>
+        <v>-0.0474645745486542</v>
       </c>
     </row>
     <row r="6">
@@ -1179,28 +1179,28 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7957168848339652</v>
+        <v>0.7141811322512288</v>
       </c>
       <c r="C6" t="n">
-        <v>0.435210497896562</v>
-      </c>
-      <c r="D6" t="e">
-        <v>#N/A</v>
+        <v>0.8518647076984717</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7278969397437905</v>
       </c>
       <c r="E6" t="n">
-        <v>0.44365385465511964</v>
+        <v>0.3510381338817596</v>
       </c>
       <c r="F6" t="n">
-        <v>0.49547478886775975</v>
+        <v>0.8513934242229282</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8609013349042506</v>
+        <v>0.9418504199150141</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1969496945398977</v>
+        <v>0.4476190476190476</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.48130693482601244</v>
+        <v>0.6880131362889983</v>
       </c>
     </row>
   </sheetData>

--- a/Models/Maxent/random_evals.xlsx
+++ b/Models/Maxent/random_evals.xlsx
@@ -523,7 +523,7 @@
         <v>0.571849645030426</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6524397738446411</v>
+        <v>0.9325582349081365</v>
       </c>
     </row>
     <row r="3">
@@ -552,7 +552,7 @@
         <v>0.6463348960973138</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5410727013542409</v>
+        <v>0.939685334165311</v>
       </c>
     </row>
     <row r="4">
@@ -581,7 +581,7 @@
         <v>0.6707115433119413</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5835282291153783</v>
+        <v>0.9538470993117011</v>
       </c>
     </row>
     <row r="5">
@@ -610,7 +610,7 @@
         <v>0.7537145928174</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6047969078153627</v>
+        <v>0.92598210899681</v>
       </c>
     </row>
     <row r="6">
@@ -639,7 +639,7 @@
         <v>0.7229819353208691</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6134327442317133</v>
+        <v>0.9501392985906261</v>
       </c>
     </row>
   </sheetData>
@@ -710,7 +710,7 @@
         <v>0.7600344262521135</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5044334975369457</v>
+        <v>0.6275308724628983</v>
       </c>
     </row>
     <row r="3">
@@ -739,7 +739,7 @@
         <v>0.5448336411011089</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7261982971914072</v>
+        <v>0.6577445137452553</v>
       </c>
     </row>
     <row r="4">
@@ -768,7 +768,7 @@
         <v>0.42269058208075644</v>
       </c>
       <c r="I4" t="n">
-        <v>0.283093055173933</v>
+        <v>0.7475193754906593</v>
       </c>
     </row>
     <row r="5">
@@ -797,7 +797,7 @@
         <v>0.8357215839471627</v>
       </c>
       <c r="I5" t="n">
-        <v>0.33766233766233766</v>
+        <v>0.004872949662771962</v>
       </c>
     </row>
     <row r="6">
@@ -826,7 +826,7 @@
         <v>-0.0594076655052265</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.721060147430755</v>
+        <v>0.918775314133071</v>
       </c>
     </row>
   </sheetData>
